--- a/Output/LinkedIn_Analysis_Report.xlsx
+++ b/Output/LinkedIn_Analysis_Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>Maria Mainhardt</t>
-  </si>
-  <si>
     <t>Neha Purohit</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Arvin Arikathota</t>
   </si>
   <si>
-    <t>Haryanni Masarip</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laetitia Callegari </t>
   </si>
   <si>
@@ -135,7 +129,7 @@
     <t>Hadi Ahmadi</t>
   </si>
   <si>
-    <t>linkedin.com/in/mariamainhardt</t>
+    <t>Dhruv Raniga</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/neha-purohit08/</t>
@@ -159,9 +153,6 @@
     <t>nan</t>
   </si>
   <si>
-    <t>https://au.linkedin.com/in/haryanni-masarip</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
   </si>
   <si>
@@ -213,7 +204,7 @@
     <t>https://www.linkedin.com/in/hadiahmadipmp/</t>
   </si>
   <si>
-    <t>https://linkedin.com/in/mariamainhardt</t>
+    <t>https://www.linkedin.com/in/dhruvraniga/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/mirna-alemadi</t>
@@ -306,7 +297,7 @@
     <t>Avg Profile Completeness</t>
   </si>
   <si>
-    <t>72.7%</t>
+    <t>71.9%</t>
   </si>
   <si>
     <t>6.5</t>
@@ -683,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,60 +704,60 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -774,39 +765,39 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
+      <c r="B6" t="s">
+        <v>42</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -814,19 +805,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,19 +825,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -854,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -863,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -871,19 +859,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -900,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -908,96 +896,99 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
+      <c r="B15" t="s">
+        <v>50</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1005,119 +996,113 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
+      <c r="B22" t="s">
+        <v>44</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1125,16 +1110,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1142,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1151,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,19 +1147,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1188,81 +1173,87 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>46</v>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
+      <c r="B30" t="s">
+        <v>60</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1270,117 +1261,96 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>74</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>46</v>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
     <hyperlink ref="D6" r:id="rId8"/>
     <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="B10" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
-    <hyperlink ref="B12" r:id="rId13"/>
-    <hyperlink ref="D12" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="D12" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId14"/>
+    <hyperlink ref="D13" r:id="rId15"/>
     <hyperlink ref="D14" r:id="rId16"/>
-    <hyperlink ref="B15" r:id="rId17"/>
-    <hyperlink ref="D15" r:id="rId18"/>
+    <hyperlink ref="D15" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
     <hyperlink ref="D16" r:id="rId19"/>
     <hyperlink ref="D17" r:id="rId20"/>
-    <hyperlink ref="B18" r:id="rId21"/>
-    <hyperlink ref="D18" r:id="rId22"/>
+    <hyperlink ref="D18" r:id="rId21"/>
+    <hyperlink ref="B19" r:id="rId22"/>
     <hyperlink ref="D19" r:id="rId23"/>
-    <hyperlink ref="D20" r:id="rId24"/>
-    <hyperlink ref="B21" r:id="rId25"/>
-    <hyperlink ref="D21" r:id="rId26"/>
-    <hyperlink ref="B22" r:id="rId27"/>
-    <hyperlink ref="D22" r:id="rId28"/>
-    <hyperlink ref="D25" r:id="rId29"/>
-    <hyperlink ref="B29" r:id="rId30"/>
+    <hyperlink ref="B20" r:id="rId24"/>
+    <hyperlink ref="D20" r:id="rId25"/>
+    <hyperlink ref="D23" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="D27" r:id="rId28"/>
+    <hyperlink ref="B28" r:id="rId29"/>
+    <hyperlink ref="D28" r:id="rId30"/>
     <hyperlink ref="D29" r:id="rId31"/>
-    <hyperlink ref="B30" r:id="rId32"/>
-    <hyperlink ref="D30" r:id="rId33"/>
-    <hyperlink ref="D31" r:id="rId34"/>
-    <hyperlink ref="D32" r:id="rId35"/>
-    <hyperlink ref="B34" r:id="rId36"/>
-    <hyperlink ref="D34" r:id="rId37"/>
+    <hyperlink ref="D30" r:id="rId32"/>
+    <hyperlink ref="B32" r:id="rId33"/>
+    <hyperlink ref="D32" r:id="rId34"/>
+    <hyperlink ref="B33" r:id="rId35"/>
+    <hyperlink ref="D33" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1388,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,94 +1366,94 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>3.61</v>
+        <v>4.91</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>4.91</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>2.2</v>
+        <v>3.83</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1491,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1500,36 +1470,36 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>3.83</v>
+        <v>4.53</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
+      <c r="B6" t="s">
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>4.53</v>
+        <v>5.99</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1537,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1546,36 +1516,33 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>5.99</v>
+        <v>5.07</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
       <c r="C8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>5.07</v>
+        <v>4.71</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1589,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>4.71</v>
+        <v>4.32</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1603,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1612,33 +1579,36 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>3.96</v>
+        <v>5.19</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>4.32</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1646,53 +1616,53 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>5.19</v>
+        <v>3.15</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>3.5</v>
+        <v>4.73</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1701,59 +1671,59 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>3.15</v>
+        <v>3.84</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
+      <c r="B15" t="s">
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>4.73</v>
+        <v>5.56</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>3.84</v>
+        <v>5.68</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1761,157 +1731,154 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>5.56</v>
+        <v>4.68</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>5.68</v>
+        <v>3.1</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19">
-        <v>4.68</v>
+        <v>4.5</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>3.1</v>
+        <v>4.37</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>4.5</v>
+        <v>4.94</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>4.37</v>
+        <v>3.99</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
       <c r="C23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>4.94</v>
+        <v>2.48</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1925,36 +1892,33 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>3.99</v>
+        <v>3.37</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
       <c r="C25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1965,208 +1929,191 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>2.86</v>
+        <v>5.04</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>32</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>3.94</v>
+        <v>4.45</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>5.04</v>
+        <v>4.84</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
+      <c r="B30" t="s">
+        <v>60</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>4.45</v>
+        <v>6.25</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
       <c r="C31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>4.84</v>
+        <v>4.71</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>6.25</v>
+        <v>5.81</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>37</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>5.81</v>
-      </c>
-      <c r="F34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B18" r:id="rId8"/>
-    <hyperlink ref="B21" r:id="rId9"/>
-    <hyperlink ref="B22" r:id="rId10"/>
-    <hyperlink ref="B29" r:id="rId11"/>
-    <hyperlink ref="B30" r:id="rId12"/>
-    <hyperlink ref="B34" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B27" r:id="rId10"/>
+    <hyperlink ref="B28" r:id="rId11"/>
+    <hyperlink ref="B32" r:id="rId12"/>
+    <hyperlink ref="B33" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2182,50 +2129,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
